--- a/new_data.xlsx
+++ b/new_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://oldwestburyedu-my.sharepoint.com/personal/jsingh47_oldwestbury_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/singh/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6489A982-21F9-4ECC-93F4-4295FF9B7A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05BA964-9B06-224B-95AF-A87198D27CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13860" yWindow="2820" windowWidth="14800" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -511,17 +511,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:I17"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22" customWidth="1"/>
   </cols>
   <sheetData>
@@ -565,7 +566,7 @@
         <v>77.8</v>
       </c>
       <c r="E2" s="3">
-        <v>24000</v>
+        <v>24000000000</v>
       </c>
       <c r="F2">
         <v>130</v>
@@ -591,7 +592,7 @@
         <v>85.5</v>
       </c>
       <c r="E3">
-        <v>25000</v>
+        <v>25000000000</v>
       </c>
       <c r="F3">
         <v>140</v>
@@ -617,7 +618,7 @@
         <v>92.2</v>
       </c>
       <c r="E4" s="2">
-        <v>600</v>
+        <v>600000000</v>
       </c>
       <c r="F4">
         <v>65</v>
@@ -643,7 +644,7 @@
         <v>60.9</v>
       </c>
       <c r="E5">
-        <v>1600</v>
+        <v>1600000000</v>
       </c>
       <c r="F5">
         <v>160</v>
@@ -669,7 +670,7 @@
         <v>97.3</v>
       </c>
       <c r="E6">
-        <v>1100</v>
+        <v>1100000000</v>
       </c>
       <c r="F6">
         <v>80</v>
@@ -695,7 +696,7 @@
         <v>73.400000000000006</v>
       </c>
       <c r="E7">
-        <v>5000</v>
+        <v>5000000000</v>
       </c>
       <c r="F7">
         <v>80</v>
@@ -721,7 +722,7 @@
         <v>62.6</v>
       </c>
       <c r="E8">
-        <v>19000</v>
+        <v>19000000000</v>
       </c>
       <c r="F8">
         <v>130</v>
@@ -747,7 +748,7 @@
         <v>80.2</v>
       </c>
       <c r="E9">
-        <v>7300</v>
+        <v>7300000000</v>
       </c>
       <c r="F9">
         <v>95</v>
@@ -773,7 +774,7 @@
         <v>86.9</v>
       </c>
       <c r="E10">
-        <v>2900</v>
+        <v>2900000000</v>
       </c>
       <c r="F10">
         <v>120</v>
@@ -799,7 +800,7 @@
         <v>87.4</v>
       </c>
       <c r="E11">
-        <v>4400</v>
+        <v>4400000000</v>
       </c>
       <c r="F11">
         <v>100</v>
@@ -825,7 +826,7 @@
         <v>79.2</v>
       </c>
       <c r="E12">
-        <v>1500</v>
+        <v>1500000000</v>
       </c>
       <c r="F12">
         <v>130</v>
@@ -851,7 +852,7 @@
         <v>81.599999999999994</v>
       </c>
       <c r="E13">
-        <v>1200</v>
+        <v>1200000000</v>
       </c>
       <c r="F13">
         <v>75</v>
@@ -877,7 +878,7 @@
         <v>71.599999999999994</v>
       </c>
       <c r="E14">
-        <v>700</v>
+        <v>700000000</v>
       </c>
       <c r="F14">
         <v>65</v>
@@ -903,7 +904,7 @@
         <v>82.6</v>
       </c>
       <c r="E15">
-        <v>75000</v>
+        <v>75000000000</v>
       </c>
       <c r="F15">
         <v>130</v>
@@ -929,7 +930,7 @@
         <v>95.7</v>
       </c>
       <c r="E16">
-        <v>1000</v>
+        <v>1000000000</v>
       </c>
       <c r="F16">
         <v>65</v>
@@ -939,6 +940,11 @@
       </c>
       <c r="H16" s="4" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
